--- a/Work on County Level Data/DataDictionary_CountyLevel.xlsx
+++ b/Work on County Level Data/DataDictionary_CountyLevel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juhe/Desktop/OEPS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{817FAD9D-E0D0-6A45-9AB9-0D4AB8F519F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A505361-553D-ED4B-8C94-B380A5C6E4B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17680" xr2:uid="{251AEF4E-E9B1-7E4C-9BD6-5CEDE10DA71D}"/>
   </bookViews>
@@ -2530,7 +2530,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{144DC04A-7728-D241-B816-8DE82D42AADF}">
   <dimension ref="A1:H252"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A219" zoomScale="88" zoomScaleNormal="58" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="88" zoomScaleNormal="58" workbookViewId="0">
       <selection activeCell="A249" sqref="A249:XFD249"/>
     </sheetView>
   </sheetViews>
